--- a/biology/Histoire de la zoologie et de la botanique/Carl_Schildbach/Carl_Schildbach.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Schildbach/Carl_Schildbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Schidlbach (né en Saxe en 1730 et mort en 1817) est un naturaliste allemand, intendant du landgrave de Hesse-Cassel.
 Superviseur du zoo dès 1771, il devient gestionnaire de la ménagerie de Frédéric II en 1773, puis intendant de Guillaume IX.
-Il est surtout connu pour la bibliothèque de bois qu'il a confectionnée entre 1771 et 1799, sous la dénomination de  Sammlung von Holzarten, so Hessenland von Natur hervorbringt (en français « Collection d'essences de bois produits par la nature du land de la Hesse »)[1]. Cette collection unique de 530 volumes (soit 441 espèces d'arbres et arbustes) est conservée à l'Ottoneum à Cassel[2].
+Il est surtout connu pour la bibliothèque de bois qu'il a confectionnée entre 1771 et 1799, sous la dénomination de  Sammlung von Holzarten, so Hessenland von Natur hervorbringt (en français « Collection d'essences de bois produits par la nature du land de la Hesse »). Cette collection unique de 530 volumes (soit 441 espèces d'arbres et arbustes) est conservée à l'Ottoneum à Cassel.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de) Carl Schildbach, Beschreibung einer Holz-Bibliothek nach selbst gewähltem Plan ausgearbeitet, Cassel, Estienne, 1788, 16 p. (lire en ligne)
 (de) Carl Schildbach, « Beschreibung einer Holzbibliothek nach selbst gewähltem Plan, ausgearbeitet von Carl Schildbach zu Cassel. », Journal von und für Deutschland, vol. 5,‎ 1788, p. 322-328 (lire en ligne)</t>
